--- a/storage/seeders/user.xlsx
+++ b/storage/seeders/user.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jupri/Projects/Sites/hrnext/storage/seeders/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7160A612-10E1-A94D-8A64-F91023D3D247}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA477060-021D-F54E-88CD-28A067B36AC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{357CFC63-05C5-3247-90D0-8E5351D20FF3}"/>
+    <workbookView xWindow="-36280" yWindow="1120" windowWidth="28800" windowHeight="17500" xr2:uid="{357CFC63-05C5-3247-90D0-8E5351D20FF3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="23">
   <si>
     <t>name</t>
   </si>
@@ -102,6 +102,9 @@
   </si>
   <si>
     <t>fany@mail.com</t>
+  </si>
+  <si>
+    <t>no</t>
   </si>
 </sst>
 </file>
@@ -464,141 +467,166 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F711380C-39E8-A945-964B-6B4D20E21358}">
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="29" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="66.1640625" customWidth="1"/>
-    <col min="4" max="4" width="20.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="29" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="66.1640625" customWidth="1"/>
+    <col min="5" max="5" width="20.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>4</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>5</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>19</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="C3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>19</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="C4" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>19</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="C5" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>19</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
         <v>16</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="C6" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>19</v>
       </c>
-      <c r="D6" t="s">
+      <c r="E6" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
         <v>18</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="C7" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
         <v>19</v>
       </c>
-      <c r="D7" t="s">
+      <c r="E7" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
         <v>20</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="C8" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C8" t="s">
+      <c r="D8" t="s">
         <v>19</v>
       </c>
-      <c r="D8" t="s">
+      <c r="E8" t="s">
         <v>1</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" xr:uid="{21C94DAC-992A-834F-9A39-5A8C31A1496D}"/>
-    <hyperlink ref="B5" r:id="rId2" xr:uid="{23146A3F-22F8-7B45-80CD-BB1C978AB699}"/>
-    <hyperlink ref="B6" r:id="rId3" xr:uid="{6BD97548-7F44-C04B-B305-3B5ECECB0738}"/>
-    <hyperlink ref="B7" r:id="rId4" xr:uid="{4F875577-0BE7-4D4B-903E-F4A09966B034}"/>
-    <hyperlink ref="B4" r:id="rId5" xr:uid="{F94AB538-BE16-3946-98C7-EDE16E82C6AB}"/>
-    <hyperlink ref="B3" r:id="rId6" xr:uid="{F025666F-3586-C04A-94DC-8DAAC7290EDF}"/>
-    <hyperlink ref="B8" r:id="rId7" xr:uid="{F09C04EE-DC1B-994A-8C07-269011212CBF}"/>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{21C94DAC-992A-834F-9A39-5A8C31A1496D}"/>
+    <hyperlink ref="C5" r:id="rId2" xr:uid="{23146A3F-22F8-7B45-80CD-BB1C978AB699}"/>
+    <hyperlink ref="C6" r:id="rId3" xr:uid="{6BD97548-7F44-C04B-B305-3B5ECECB0738}"/>
+    <hyperlink ref="C7" r:id="rId4" xr:uid="{4F875577-0BE7-4D4B-903E-F4A09966B034}"/>
+    <hyperlink ref="C4" r:id="rId5" xr:uid="{F94AB538-BE16-3946-98C7-EDE16E82C6AB}"/>
+    <hyperlink ref="C3" r:id="rId6" xr:uid="{F025666F-3586-C04A-94DC-8DAAC7290EDF}"/>
+    <hyperlink ref="C8" r:id="rId7" xr:uid="{F09C04EE-DC1B-994A-8C07-269011212CBF}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
